--- a/Appendix/A/6/download links.xlsx
+++ b/Appendix/A/6/download links.xlsx
@@ -123,6 +123,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -392,6 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,7 +700,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +906,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,52 +1303,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="21">
-        <v>1</v>
+        <v>65425</v>
       </c>
       <c r="C2" s="21">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="D2">
+        <v>1410698</v>
+      </c>
+      <c r="E2" s="22">
+        <f>(1-(D2/(B2*C2)))*100</f>
+        <v>93.750126541620276</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21">
-        <v>2</v>
+        <v>608810</v>
       </c>
       <c r="C3" s="21">
-        <v>33135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="D3">
+        <v>1768149</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" ref="E3:E7" si="0">(1-(D3/(B3*C3)))*100</f>
+        <v>99.247598283340992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
-        <v>3</v>
+        <v>5230</v>
       </c>
       <c r="C4" s="21">
-        <v>56379</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="D4">
+        <v>8958</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" si="0"/>
+        <v>99.098520680285802</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
-        <v>4</v>
+        <v>905228</v>
       </c>
       <c r="C5" s="21">
-        <v>16804</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="D5">
+        <v>2084208</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>99.318812955632367</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
-        <v>5</v>
+        <v>1291708</v>
       </c>
       <c r="C6" s="21">
-        <v>1412</v>
+        <v>413</v>
+      </c>
+      <c r="D6">
+        <v>2509948</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="0"/>
+        <v>99.529510080281042</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="21">
+        <v>189391</v>
+      </c>
+      <c r="C7" s="21">
+        <v>562</v>
+      </c>
+      <c r="D7">
+        <v>719734</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
+        <v>99.323798131681528</v>
       </c>
     </row>
   </sheetData>
